--- a/cards.xlsx
+++ b/cards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,26 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>designation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>card_width</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>card_height</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +516,10 @@
           <t>2026-01-30 16:25:42</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,6 +551,102 @@
         <is>
           <t>2026-01-31 01:56:41</t>
         </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sit</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+91 8850206602</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vedikaraut@suvidya.ac.in</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SUVIDYA INSTITUTE SUVIDYA INSTITUTE OF TECHNOLOGY PVT. LTD.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>18/140, Anand Nagar, Nehru Road, Vakola, Santacruz (E)., Mumbai - 400 055. India., Pune Branch : 303. Success Square, Karve Rd., Paschimanagri, Kothrud, Pune, Maharashtra 411038, India</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-02-02 16:19:52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Executive-CBD</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>704</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ravindra Nikam</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+91 2241614161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>nikam@goma.co.in</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GOMA Process Technologies Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Plot No. B/66, Road No. 34, Wagle Estate, Thane (W) - 400 604. Mumbai. (India</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-03 11:03:12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>manpower req</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>704</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1252</v>
       </c>
     </row>
   </sheetData>

--- a/cards.xlsx
+++ b/cards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,164 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nair Manoj</t>
+          <t>Ravindra Nikam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+91 7498569516</t>
+          <t>+91 2241614161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>manojnair@sterlingwilson.com</t>
+          <t>nikam@goma.co.in</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>STERLING Limited</t>
+          <t>GOMA Process Technologies Pvt. Ltd.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chief Executive Officer - Industrial EPC, Mumbai</t>
+          <t>Plot No. B/66, Road No. 34, Wagle Estate, Thane (W) - 400 604. Mumbai. (India</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-01-30 16:25:42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sandra</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>+91 2063532846</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sandra.tucker@finefx.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>FineFX</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3D &amp; MOTION GRAPHICS, www.fineFX.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2026-01-31 01:56:41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sit</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>+91 8850206602</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>vedikaraut@suvidya.ac.in</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SUVIDYA INSTITUTE SUVIDYA INSTITUTE OF TECHNOLOGY PVT. LTD.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18/140, Anand Nagar, Nehru Road, Vakola, Santacruz (E)., Mumbai - 400 055. India., Pune Branch : 303. Success Square, Karve Rd., Paschimanagri, Kothrud, Pune, Maharashtra 411038, India</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-02-02 16:19:52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Executive-CBD</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
+          <t>2026-02-03 11:03:12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>manpower req</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>704</v>
       </c>
-      <c r="J4" t="n">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ravindra Nikam</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>+91 2241614161</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>nikam@goma.co.in</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GOMA Process Technologies Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Plot No. B/66, Road No. 34, Wagle Estate, Thane (W) - 400 604. Mumbai. (India</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2026-02-03 11:03:12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>manpower req</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>704</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="J2" t="n">
         <v>1252</v>
       </c>
     </row>
